--- a/AAII_Financials/Quarterly/WMGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMGI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>WMGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43002</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42911</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42820</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42729</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>248600</v>
+      </c>
+      <c r="F8" s="3">
         <v>212400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>229700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>230100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>238100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>194100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>205400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>198500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>217600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>170500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>179700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>177200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>193000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F9" s="3">
         <v>44400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>48300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>46300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>49100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>44300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>45600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>41100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>47300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>38400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>38100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>37100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>50600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>199100</v>
+      </c>
+      <c r="F10" s="3">
         <v>168000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>181400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>183800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>189000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>149800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>159800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>157400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>170300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>132100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>141600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>140100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>142400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F12" s="3">
         <v>18000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>18800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>17000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>16700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>13800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>14700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>13900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>13100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>12000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>12500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>12400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,19 +1001,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>5600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1012,52 +1051,64 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F15" s="3">
         <v>8300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>7900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>7600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>6800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>7000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>7400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>7400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>221200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>234500</v>
+      </c>
+      <c r="F17" s="3">
         <v>223600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>227100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>224200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>234300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>203200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>207100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>199400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>189000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>188500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>186800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>212300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>195900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>17200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-18500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-9600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-19300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-38600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,96 +1242,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-21700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-18100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-32600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-26100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-23600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-93400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-18800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-17800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-24400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-26200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-17200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-75200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>20900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-20800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-14900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-14300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-32800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,96 +1388,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-32900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-26600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-22300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-32800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-95100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-19700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-42900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-20600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-35800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-36500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-55000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-19200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-8800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-6500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-36200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-18900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-30300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-22900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-35800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-90600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-19900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>18600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-34100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-36700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-30000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-52700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-36200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-18900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-30300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-22900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-35800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-90600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-19900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-34100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-36700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-52700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,52 +1688,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F29" s="3">
         <v>-7600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>1100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-6300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-10800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-6700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>22900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-5600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>10600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-97700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-20200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-22000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-14900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-57400</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F32" s="3">
         <v>21700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>18100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>32600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>26100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>23600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>93400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>18800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>17800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>24400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>26200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>17200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-43800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-17800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-36600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-33800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-42500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-67700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-25500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>29100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-131900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-41200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-58700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-44900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-43800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-17800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-36600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-33800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-42500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-67700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-25500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>29100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-131900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-41200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-58700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-44900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43002</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42911</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42820</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42729</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2137,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>166900</v>
+      </c>
+      <c r="F41" s="3">
         <v>147300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>150600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>161500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>191400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>694900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>313200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>138100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>167700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>238900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>228900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>236000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>262300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>314300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,184 +2233,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>147400</v>
+      </c>
+      <c r="F43" s="3">
         <v>137400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>139700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>138700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>141000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>122600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>124800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>130600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>130600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>114900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>116900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>119300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>130600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>198400</v>
+      </c>
+      <c r="F44" s="3">
         <v>197300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>194700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>186900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>180700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>179500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>170900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>174400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>168100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>172300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>161800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>153100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>150800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>170800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>231000</v>
+      </c>
+      <c r="F45" s="3">
         <v>158800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>294600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>323400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>90200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>326700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>112900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>81700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>115000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>216600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>477900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>215900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>648500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>743700</v>
+      </c>
+      <c r="F46" s="3">
         <v>640800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>779500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>810500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>603200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1323700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>721800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>524700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>566900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>641100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>724100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>986300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>759600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>739400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,96 +2483,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>257600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>271900</v>
+      </c>
+      <c r="F48" s="3">
         <v>254300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>268000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>262300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>224900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>221200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>217400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>212300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>212400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>211800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>206600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>200100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>201700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>211100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1504100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1518300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1517300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1537500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1540700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1551300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1131000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1140000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1169900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1164700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1087500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1080800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1082000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1082800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1103600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2683,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F52" s="3">
         <v>96400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>177600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>215800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>315000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>163400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>332800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>169600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>184800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>260300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>279900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>159700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>246400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>262200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2480600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2585600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2508800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2762700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2829300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2694400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2839300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2412000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2076500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2128700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2200700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2291500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2428000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2290600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2316300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2877,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F57" s="3">
         <v>35700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>43900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>44500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>48400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>45100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>42200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>43300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>41800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>43500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>42800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>36100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>32900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>379500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>430900</v>
+      </c>
+      <c r="F58" s="3">
         <v>425300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>417900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>410300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>201700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>514900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>39900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>59300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>58900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>56800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>25600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>307100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>33900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>343700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>387000</v>
+      </c>
+      <c r="F59" s="3">
         <v>282700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>395100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>434500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>217100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>506300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>268000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>267400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>314600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>387600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>432400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>697600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>407700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>402000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>767100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>850000</v>
+      </c>
+      <c r="F60" s="3">
         <v>743700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>857000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>889300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>467100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1066300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>350100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>370000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>415300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>487800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1040800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>474500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>431300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>742600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>737200</v>
+      </c>
+      <c r="F61" s="3">
         <v>731800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>727300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>721700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>913400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>586600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1062000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>851500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>836200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>818900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>805800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>507400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>780400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>769300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>106700</v>
+      </c>
+      <c r="F62" s="3">
         <v>181500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>272300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>305100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>381400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>227900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>431700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>271800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>288500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>355500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>350200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>224500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>348800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>370600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1601200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1693800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1656900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1856700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1916100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1761900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1880800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1843800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1493400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1540000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1662200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1656800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1772800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1603700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1571200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1707200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1692300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1676300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1632500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1614700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1578300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1544600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1502000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1434400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1408800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1438000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1306100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1264900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1161400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>879400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>891800</v>
+      </c>
+      <c r="F76" s="3">
         <v>851900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>906000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>913300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>932500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>958500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>568200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>583200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>588700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>538500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>634600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>655200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>686900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>745100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43002</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42911</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42820</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42729</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-43800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-17800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-36600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-33800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-42500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-67700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-25500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>29100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-131900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-41200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-58700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-44900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F83" s="3">
         <v>24300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>24000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>23100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>24200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>20500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>19900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>21600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>22200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>20700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>20800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>22200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F89" s="3">
         <v>16200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-51200</v>
       </c>
       <c r="H89" s="3">
         <v>-7400</v>
       </c>
       <c r="I89" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K89" s="3">
         <v>13600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-18800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-55500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-118500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-14500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>63200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-22600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-25400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-21500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-17800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-19200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-20100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-27100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-457500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-21900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-18400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-58500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-18600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-19300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-13000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>8300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>411000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>180700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>34600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>7900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>29000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-10900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-29800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-503600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>381700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>175200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-29700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-110000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-101100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-26300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>98000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-11900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WMGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WMGI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>WMGI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43002</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42911</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42820</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42729</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E8" s="3">
         <v>218500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>248600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>212400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>229700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>230100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>238100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>194100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>205400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>198500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>217600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>170500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>179700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>177200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>193000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>157300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E9" s="3">
         <v>38900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>46300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E10" s="3">
         <v>179600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>199100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>168000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>181400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>183800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>189000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>149800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>159800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>157400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>170300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>132100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>141600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>140100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>142400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>111200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
         <v>19600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,22 +1024,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>5600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1066,49 +1089,52 @@
         <v>8100</v>
       </c>
       <c r="E15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F15" s="3">
         <v>8200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7400</v>
       </c>
       <c r="Q15" s="3">
         <v>7400</v>
       </c>
       <c r="R15" s="3">
+        <v>7400</v>
+      </c>
+      <c r="S15" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E17" s="3">
         <v>221200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>234500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>223600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>227100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>224200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>234300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>203200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>207100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>199400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>189000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>188500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>186800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>212300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>195900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-38600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,108 +1277,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-18200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-21700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-18100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-32600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-23600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-93400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E21" s="3">
         <v>14700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-75200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-14300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-32800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,108 +1434,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-32800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-95100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-36500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-55000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-19200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-35800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-90600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-52700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-90600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-52700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,58 +1752,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-9300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-7600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-10800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>22900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>10600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-97700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-20200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-14900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-57400</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E32" s="3">
         <v>6700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>18200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>21700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>18100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>32600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>23600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>93400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-42500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-67700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-131900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-41200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-44900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-42500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-67700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-131900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-41200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-44900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43002</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42911</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42820</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42729</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>133700</v>
+      </c>
+      <c r="E41" s="3">
         <v>102800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>166900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>147300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>150600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>161500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>191400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>694900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>313200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>138100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>167700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>238900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>228900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>236000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>262300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>314300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,208 +2329,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E43" s="3">
         <v>125400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>147400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>137400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>139700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>138700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>141000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>122600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>124800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>130600</v>
       </c>
       <c r="M43" s="3">
         <v>130600</v>
       </c>
       <c r="N43" s="3">
+        <v>130600</v>
+      </c>
+      <c r="O43" s="3">
         <v>114900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>116900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>119300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>130600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>121800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E44" s="3">
         <v>215800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>198400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>197300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>194700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>186900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>180700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>179500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>170900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>174400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>168100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>172300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>161800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>153100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>150800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>170800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E45" s="3">
         <v>204500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>231000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>158800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>294600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>323400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>90200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>326700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>81700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>115000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>216600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>477900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>215900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>707100</v>
+      </c>
+      <c r="E46" s="3">
         <v>648500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>743700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>640800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>779500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>810500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>603200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1323700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>721800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>524700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>566900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>641100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>724100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>986300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>759600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>739400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,108 +2594,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>259300</v>
+      </c>
+      <c r="E48" s="3">
         <v>257600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>271900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>254300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>268000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>262300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>224900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>221200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>217400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>212300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>212400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>211800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>206600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>200100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>201700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>211100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1505900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1504100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1518300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1517300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1537500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1540700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1551300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1131000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1140000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1169900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1164700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1087500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1080800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1082000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1082800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1103600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E52" s="3">
         <v>70400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>96400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>177600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>215800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>315000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>163400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>332800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>169600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>184800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>260300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>279900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>159700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>246400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>262200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2563500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2480600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2585600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2508800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2762700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2829300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2694400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2839300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2412000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2076500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2128700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2291500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2428000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2290600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2316300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E57" s="3">
         <v>43900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>454300</v>
+      </c>
+      <c r="E58" s="3">
         <v>379500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>430900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>425300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>417900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>410300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>201700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>514900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>39900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>59300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>56800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>307100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>370700</v>
+      </c>
+      <c r="E59" s="3">
         <v>343700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>387000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>282700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>395100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>434500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>217100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>506300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>268000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>267400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>314600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>387600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>432400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>697600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>407700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>402000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>861200</v>
+      </c>
+      <c r="E60" s="3">
         <v>767100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>850000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>743700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>857000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>889300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>467100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1066300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>350100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>370000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>415300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>487800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1040800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>474500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>431300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>756800</v>
+      </c>
+      <c r="E61" s="3">
         <v>742600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>737200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>731800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>727300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>721700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>913400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>586600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1062000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>851500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>836200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>818900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>805800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>507400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>780400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>769300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E62" s="3">
         <v>91500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>181500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>272300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>305100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>381400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>227900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>431700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>271800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>288500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>355500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>350200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>224500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>348800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>370600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1722600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1601200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1693800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1656900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1856700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1916100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1761900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1880800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1843800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1493400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1540000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1662200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1656800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1772800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1603700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1571200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1766600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1707200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1692300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1676300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1632500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1614700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1578300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1544600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1502000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1434400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1408800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1438000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1306100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1264900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1161400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>840900</v>
+      </c>
+      <c r="E76" s="3">
         <v>879400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>891800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>851900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>906000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>913300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>932500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>958500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>568200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>583200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>588700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>538500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>634600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>655200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>686900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>745100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43002</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42911</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42820</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42729</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-42500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-67700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-131900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-41200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-44900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-110100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E83" s="3">
         <v>24200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>22200</v>
       </c>
       <c r="R83" s="3">
         <v>22200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E89" s="3">
         <v>19300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-51200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-55500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-118500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-457500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>8300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>411000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>180700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>34600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>29000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
       </c>
       <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-64000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-503600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>381700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>175200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-110000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-101100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>98000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11900</v>
       </c>
     </row>
